--- a/產品報表.xlsx
+++ b/產品報表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\Desktop\webFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A97595-128E-42AB-AD49-122F24E70877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E5CCF5-3CD2-4708-923D-B02A6442FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="2490" windowWidth="12330" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="2055" windowWidth="12330" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>(N6000/8GB/512GB SSD/Win11/15.6吋) 效能筆電</t>
-  </si>
-  <si>
-    <t>ASUS 15.6吋效能筆電-午夜藍</t>
-  </si>
-  <si>
-    <t>(i7-12700H/16G/512G/W11/FHD/15.6)</t>
-  </si>
-  <si>
-    <t>MSI微星 Bravo 15 C7VFK-200TW-SP1 黑</t>
-  </si>
-  <si>
-    <t>(R5-7535HS/8G+8G/512G SSD/RTX4060 8G/W11/15.6)特仕筆電</t>
-  </si>
-  <si>
-    <t>MSI微星 Modern 15 H B13M-002TW-SP4 黑</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HP 15.6吋效能文書筆電 極地白</t>
   </si>
@@ -91,19 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DHABG5-A900GIOAU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DHAFOD-1900HHONC</t>
-  </si>
-  <si>
-    <t>DHABC1-A900GLD2T</t>
-  </si>
-  <si>
-    <t>DHABC2-A900GJCY7</t>
-  </si>
-  <si>
     <t>DHAG4S-1900GQW1B</t>
   </si>
   <si>
@@ -125,14 +94,6 @@
   </si>
   <si>
     <t>DHAFRC-1900HBWZO</t>
-  </si>
-  <si>
-    <t>ACER Aspire 3 A315-35-P4CG 銀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(i7-13700H/32G/1TB SSD/W11P/15.6)特仕筆電</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DHAG7L-A900GO40F</t>
@@ -461,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -477,91 +438,91 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>12900</v>
+        <v>17999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>22999</v>
+        <v>19490</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>29900</v>
+        <v>24990</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>29500</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>17999</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -570,62 +531,6 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>19490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>24990</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>11900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>13900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
         <v>27900</v>
       </c>
     </row>
